--- a/benchmarks/future_simulations-120-days.xlsx
+++ b/benchmarks/future_simulations-120-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>heuristic</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>reward</t>
+  </si>
+  <si>
+    <t>f_threshold</t>
+  </si>
+  <si>
+    <t>f_window</t>
+  </si>
+  <si>
+    <t>l_school</t>
   </si>
   <si>
     <t>constant</t>
@@ -404,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,19 +447,28 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -459,16 +477,66 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>33538841241.78695</v>
+        <v>44209277872.14597</v>
       </c>
       <c r="I2">
-        <v>9846.24823371413</v>
+        <v>17189.11425335885</v>
       </c>
       <c r="J2">
-        <v>23341209482.49907</v>
+        <v>43102563258.75139</v>
+      </c>
+      <c r="K2">
+        <v>3000</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>36706454390.99908</v>
+      </c>
+      <c r="I3">
+        <v>7601.003459188413</v>
+      </c>
+      <c r="J3">
+        <v>28780313384.82622</v>
+      </c>
+      <c r="K3">
+        <v>2800</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
